--- a/Calendario2021/Retos/CasoEstudio/casoCalis.xlsx
+++ b/Calendario2021/Retos/CasoEstudio/casoCalis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L00614578\Documents\GitHub\Interconexion\Calendario2021\Retos\CasoEstudio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE37B4A5-09C4-4049-AA5F-C1E7D20367C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D893393-19F0-4B9C-AB88-98CC153A67ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32475" yWindow="3765" windowWidth="17310" windowHeight="10200" xr2:uid="{99212024-C5DA-4049-8394-0F7D90C80679}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{99212024-C5DA-4049-8394-0F7D90C80679}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -379,24 +379,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{863FFD0D-5BFA-45CF-BB5F-8E97A38AB15B}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1">
         <f>100-96.88</f>
         <v>3.1200000000000045</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B4">
         <f>15.63+A1</f>
         <v>18.750000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <f>6*7</f>
+        <v>42</v>
+      </c>
+      <c r="C7">
+        <f>B7*$C$10/$B$10</f>
+        <v>62.686567164179102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <f>B8*$C$10/$B$10</f>
+        <v>23.880597014925375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f>B9*$C$10/$B$10</f>
+        <v>13.432835820895523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <f>SUM(B7:B9)</f>
+        <v>67</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
